--- a/data/trans_orig/P33b_R4-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R4-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2406E70D-6DA4-4CDC-99F5-69B7142D5B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8583CF19-405C-4C87-8AAC-EC9251F0E09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{576ECB21-5777-4A58-AB8F-8B5C505DEF1E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{296DF172-95D1-4290-BDD3-9F1DDA09BB68}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>4,0%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>96,0%</t>
   </si>
   <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>94,07%</t>
   </si>
   <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>7,51%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
   </si>
   <si>
     <t>13,94%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>86,06%</t>
   </si>
   <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
   </si>
   <si>
     <t>89,18%</t>
   </si>
   <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,112 +194,112 @@
     <t>16,4%</t>
   </si>
   <si>
-    <t>12,83%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
   </si>
   <si>
     <t>20,71%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
   </si>
   <si>
     <t>79,29%</t>
   </si>
   <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
     <t>77,75%</t>
   </si>
   <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,49 @@
     <t>8,05%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
+    <t>5,51%</t>
   </si>
   <si>
     <t>11,69%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
   </si>
   <si>
     <t>91,95%</t>
   </si>
   <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>94,49%</t>
   </si>
   <si>
     <t>88,31%</t>
   </si>
   <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
   </si>
   <si>
     <t>89,98%</t>
   </si>
   <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,112 +359,112 @@
     <t>14,59%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
   <si>
     <t>24,13%</t>
   </si>
   <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
   </si>
   <si>
     <t>19,35%</t>
   </si>
   <si>
-    <t>16,84%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>22,17%</t>
   </si>
   <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
   </si>
   <si>
     <t>77,83%</t>
   </si>
   <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
+    <t>85,02%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,109 +473,109 @@
     <t>19,58%</t>
   </si>
   <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
   </si>
   <si>
     <t>31,43%</t>
   </si>
   <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
   </si>
   <si>
     <t>25,52%</t>
   </si>
   <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
   </si>
   <si>
     <t>80,42%</t>
   </si>
   <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
   </si>
   <si>
     <t>68,57%</t>
   </si>
   <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
   </si>
   <si>
     <t>74,48%</t>
   </si>
   <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
   </si>
   <si>
     <t>14,03%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
   </si>
   <si>
     <t>21,97%</t>
   </si>
   <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
   </si>
   <si>
     <t>85,97%</t>
   </si>
   <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
   </si>
   <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
   </si>
   <si>
     <t>81,77%</t>
   </si>
   <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDB9140-E278-4D98-A2B6-75E249585898}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FF2A55-0FBF-4861-A9E7-DE0D90B56CAF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1746,7 +1740,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -1755,13 +1749,13 @@
         <v>27058</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -1770,13 +1764,13 @@
         <v>42895</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,13 +1785,13 @@
         <v>180911</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>429</v>
@@ -1806,13 +1800,13 @@
         <v>204438</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>683</v>
@@ -1821,13 +1815,13 @@
         <v>385349</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1895,13 +1889,13 @@
         <v>40443</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>126</v>
@@ -1910,13 +1904,13 @@
         <v>66508</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>184</v>
@@ -1925,13 +1919,13 @@
         <v>106951</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,13 +1940,13 @@
         <v>236780</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>334</v>
@@ -1961,13 +1955,13 @@
         <v>209114</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>647</v>
@@ -1976,13 +1970,13 @@
         <v>445894</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2050,13 +2044,13 @@
         <v>88474</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>258</v>
@@ -2065,13 +2059,13 @@
         <v>189748</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>343</v>
@@ -2080,13 +2074,13 @@
         <v>278222</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2095,13 @@
         <v>538203</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>702</v>
@@ -2116,13 +2110,13 @@
         <v>614455</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1215</v>
@@ -2131,13 +2125,13 @@
         <v>1152658</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2205,13 +2199,13 @@
         <v>168249</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>378</v>
@@ -2220,13 +2214,13 @@
         <v>272069</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>572</v>
@@ -2235,13 +2229,13 @@
         <v>440318</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2250,13 @@
         <v>691179</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>683</v>
@@ -2271,13 +2265,13 @@
         <v>593603</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1251</v>
@@ -2286,13 +2280,13 @@
         <v>1284782</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2354,13 @@
         <v>474359</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1248</v>
@@ -2375,13 +2369,13 @@
         <v>835803</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1767</v>
@@ -2390,13 +2384,13 @@
         <v>1310162</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2405,13 @@
         <v>2907782</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>4112</v>
@@ -2426,13 +2420,13 @@
         <v>2967849</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>6966</v>
@@ -2441,13 +2435,13 @@
         <v>5875631</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R4-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R4-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8583CF19-405C-4C87-8AAC-EC9251F0E09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6828163-8261-49A7-972D-B87BBF7CD00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{296DF172-95D1-4290-BDD3-9F1DDA09BB68}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{81F97114-48EA-4400-B185-BFEF32D7C131}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FF2A55-0FBF-4861-A9E7-DE0D90B56CAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A511C0-2CF5-4BA0-8493-E080793B3481}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R4-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R4-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6828163-8261-49A7-972D-B87BBF7CD00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AA7277C-C65A-4D79-ACC5-53521DD201DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{81F97114-48EA-4400-B185-BFEF32D7C131}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2319D43B-08E1-414C-90C8-8F5587D95CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>4,0%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>96,0%</t>
   </si>
   <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
   </si>
   <si>
     <t>94,07%</t>
   </si>
   <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,112 +137,112 @@
     <t>7,51%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
   </si>
   <si>
     <t>13,94%</t>
   </si>
   <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>9,14%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
   </si>
   <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
     <t>80,01%</t>
   </si>
   <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
   </si>
   <si>
     <t>81,67%</t>
   </si>
   <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>18,44%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
   </si>
   <si>
     <t>25,11%</t>
   </si>
   <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
   </si>
   <si>
     <t>22,25%</t>
   </si>
   <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
   </si>
   <si>
     <t>74,89%</t>
   </si>
   <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
   </si>
   <si>
     <t>77,75%</t>
   </si>
   <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,49 +308,55 @@
     <t>8,05%</t>
   </si>
   <si>
-    <t>5,51%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
   </si>
   <si>
     <t>11,69%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
   </si>
   <si>
     <t>91,95%</t>
   </si>
   <si>
-    <t>94,49%</t>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>88,31%</t>
   </si>
   <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
   </si>
   <si>
     <t>89,98%</t>
   </si>
   <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -359,55 +365,55 @@
     <t>14,59%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
   </si>
   <si>
     <t>24,13%</t>
   </si>
   <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
   </si>
   <si>
     <t>19,35%</t>
   </si>
   <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
   </si>
   <si>
     <t>85,41%</t>
   </si>
   <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
   </si>
   <si>
     <t>75,87%</t>
   </si>
   <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
   </si>
   <si>
     <t>80,65%</t>
   </si>
   <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,55 +422,55 @@
     <t>14,12%</t>
   </si>
   <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
   </si>
   <si>
     <t>23,59%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
   </si>
   <si>
     <t>19,44%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
   </si>
   <si>
     <t>85,88%</t>
   </si>
   <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
   </si>
   <si>
     <t>76,41%</t>
   </si>
   <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
   </si>
   <si>
     <t>80,56%</t>
   </si>
   <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,109 +479,109 @@
     <t>19,58%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
   </si>
   <si>
     <t>31,43%</t>
   </si>
   <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
   </si>
   <si>
     <t>25,52%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
   </si>
   <si>
     <t>80,42%</t>
   </si>
   <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
   </si>
   <si>
     <t>68,57%</t>
   </si>
   <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
   </si>
   <si>
     <t>74,48%</t>
   </si>
   <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
   </si>
   <si>
     <t>14,03%</t>
   </si>
   <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
   </si>
   <si>
     <t>21,97%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
   </si>
   <si>
     <t>85,97%</t>
   </si>
   <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
   </si>
   <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
   </si>
   <si>
     <t>81,77%</t>
   </si>
   <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A511C0-2CF5-4BA0-8493-E080793B3481}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9B200F-4179-4ACD-82AC-C642E6BE558E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1740,7 +1746,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -1749,13 +1755,13 @@
         <v>27058</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -1764,13 +1770,13 @@
         <v>42895</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1791,13 @@
         <v>180911</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>429</v>
@@ -1800,13 +1806,13 @@
         <v>204438</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>683</v>
@@ -1815,13 +1821,13 @@
         <v>385349</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1883,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1895,13 @@
         <v>40443</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>126</v>
@@ -1904,13 +1910,13 @@
         <v>66508</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>184</v>
@@ -1919,13 +1925,13 @@
         <v>106951</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1946,13 @@
         <v>236780</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>334</v>
@@ -1955,13 +1961,13 @@
         <v>209114</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>647</v>
@@ -1970,13 +1976,13 @@
         <v>445894</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2038,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2050,13 @@
         <v>88474</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>258</v>
@@ -2059,13 +2065,13 @@
         <v>189748</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>343</v>
@@ -2074,13 +2080,13 @@
         <v>278222</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2101,13 @@
         <v>538203</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>702</v>
@@ -2110,13 +2116,13 @@
         <v>614455</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1215</v>
@@ -2125,13 +2131,13 @@
         <v>1152658</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,7 +2193,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2199,13 +2205,13 @@
         <v>168249</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>378</v>
@@ -2214,13 +2220,13 @@
         <v>272069</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>572</v>
@@ -2229,13 +2235,13 @@
         <v>440318</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2256,13 @@
         <v>691179</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>683</v>
@@ -2265,13 +2271,13 @@
         <v>593603</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1251</v>
@@ -2280,13 +2286,13 @@
         <v>1284782</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2360,13 @@
         <v>474359</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1248</v>
@@ -2369,13 +2375,13 @@
         <v>835803</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1767</v>
@@ -2384,13 +2390,13 @@
         <v>1310162</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2411,13 @@
         <v>2907782</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>4112</v>
@@ -2420,13 +2426,13 @@
         <v>2967849</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>6966</v>
@@ -2435,13 +2441,13 @@
         <v>5875631</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R4-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R4-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AA7277C-C65A-4D79-ACC5-53521DD201DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA9B04C7-917D-4B27-BE84-EC5CB16C2056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2319D43B-08E1-414C-90C8-8F5587D95CAB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{51A985A1-FDF9-4108-A850-85F8FE0C4431}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,268 +134,268 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>24,59%</t>
   </si>
   <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>75,41%</t>
   </si>
   <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
   </si>
   <si>
     <t>24,13%</t>
   </si>
   <si>
-    <t>20,03%</t>
+    <t>20,05%</t>
   </si>
   <si>
     <t>28,11%</t>
   </si>
   <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
   <si>
     <t>75,87%</t>
@@ -404,184 +404,184 @@
     <t>71,89%</t>
   </si>
   <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
   </si>
   <si>
     <t>22,62%</t>
   </si>
   <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
   </si>
   <si>
     <t>77,38%</t>
   </si>
   <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9B200F-4179-4ACD-82AC-C642E6BE558E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567964A1-31BA-4C1A-BB11-93C846D3BF26}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1117,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>10423</v>
+        <v>12035</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1132,7 +1132,7 @@
         <v>44</v>
       </c>
       <c r="I4" s="7">
-        <v>21112</v>
+        <v>22483</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1147,7 +1147,7 @@
         <v>57</v>
       </c>
       <c r="N4" s="7">
-        <v>31535</v>
+        <v>34518</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1168,7 +1168,7 @@
         <v>318</v>
       </c>
       <c r="D5" s="7">
-        <v>249875</v>
+        <v>299408</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1183,7 +1183,7 @@
         <v>494</v>
       </c>
       <c r="I5" s="7">
-        <v>250291</v>
+        <v>267152</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1198,7 +1198,7 @@
         <v>812</v>
       </c>
       <c r="N5" s="7">
-        <v>500165</v>
+        <v>566559</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1219,7 +1219,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1234,7 +1234,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1249,7 +1249,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1272,7 +1272,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>38987</v>
+        <v>37713</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1287,7 +1287,7 @@
         <v>103</v>
       </c>
       <c r="I7" s="7">
-        <v>77179</v>
+        <v>71387</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1302,7 +1302,7 @@
         <v>134</v>
       </c>
       <c r="N7" s="7">
-        <v>116167</v>
+        <v>109100</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1323,7 +1323,7 @@
         <v>351</v>
       </c>
       <c r="D8" s="7">
-        <v>480310</v>
+        <v>480677</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1338,7 +1338,7 @@
         <v>613</v>
       </c>
       <c r="I8" s="7">
-        <v>476667</v>
+        <v>442935</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1353,7 +1353,7 @@
         <v>964</v>
       </c>
       <c r="N8" s="7">
-        <v>956977</v>
+        <v>923612</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1374,7 +1374,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1389,7 +1389,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553846</v>
+        <v>514322</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1404,7 +1404,7 @@
         <v>1098</v>
       </c>
       <c r="N9" s="7">
-        <v>1073144</v>
+        <v>1032712</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1427,7 +1427,7 @@
         <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>52532</v>
+        <v>51202</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1442,7 +1442,7 @@
         <v>117</v>
       </c>
       <c r="I10" s="7">
-        <v>74622</v>
+        <v>69552</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1457,7 +1457,7 @@
         <v>179</v>
       </c>
       <c r="N10" s="7">
-        <v>127154</v>
+        <v>120754</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1478,7 +1478,7 @@
         <v>296</v>
       </c>
       <c r="D11" s="7">
-        <v>267698</v>
+        <v>262863</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1493,7 +1493,7 @@
         <v>419</v>
       </c>
       <c r="I11" s="7">
-        <v>298662</v>
+        <v>279576</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1508,7 +1508,7 @@
         <v>715</v>
       </c>
       <c r="N11" s="7">
-        <v>566360</v>
+        <v>542439</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1529,7 +1529,7 @@
         <v>358</v>
       </c>
       <c r="D12" s="7">
-        <v>320230</v>
+        <v>314065</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1544,7 +1544,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1559,7 +1559,7 @@
         <v>894</v>
       </c>
       <c r="N12" s="7">
-        <v>693514</v>
+        <v>663193</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1582,7 +1582,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="7">
-        <v>59413</v>
+        <v>57274</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1597,7 +1597,7 @@
         <v>160</v>
       </c>
       <c r="I13" s="7">
-        <v>107508</v>
+        <v>99221</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1612,7 +1612,7 @@
         <v>211</v>
       </c>
       <c r="N13" s="7">
-        <v>166921</v>
+        <v>156495</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1633,7 +1633,7 @@
         <v>241</v>
       </c>
       <c r="D14" s="7">
-        <v>262827</v>
+        <v>255283</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1648,7 +1648,7 @@
         <v>438</v>
       </c>
       <c r="I14" s="7">
-        <v>320618</v>
+        <v>376090</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1663,7 +1663,7 @@
         <v>679</v>
       </c>
       <c r="N14" s="7">
-        <v>583445</v>
+        <v>631372</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1684,7 +1684,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1699,7 +1699,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>428126</v>
+        <v>475311</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1714,7 +1714,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750366</v>
+        <v>787867</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1737,7 +1737,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>15837</v>
+        <v>14306</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1752,7 +1752,7 @@
         <v>62</v>
       </c>
       <c r="I16" s="7">
-        <v>27058</v>
+        <v>24403</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1767,7 +1767,7 @@
         <v>87</v>
       </c>
       <c r="N16" s="7">
-        <v>42895</v>
+        <v>38709</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1788,7 +1788,7 @@
         <v>254</v>
       </c>
       <c r="D17" s="7">
-        <v>180911</v>
+        <v>164436</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1803,7 +1803,7 @@
         <v>429</v>
       </c>
       <c r="I17" s="7">
-        <v>204438</v>
+        <v>183871</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1818,7 +1818,7 @@
         <v>683</v>
       </c>
       <c r="N17" s="7">
-        <v>385349</v>
+        <v>348307</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1839,7 +1839,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1854,7 +1854,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1869,7 +1869,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1892,7 +1892,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>40443</v>
+        <v>38658</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1907,7 +1907,7 @@
         <v>126</v>
       </c>
       <c r="I19" s="7">
-        <v>66508</v>
+        <v>62035</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1922,7 +1922,7 @@
         <v>184</v>
       </c>
       <c r="N19" s="7">
-        <v>106951</v>
+        <v>100693</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1943,7 +1943,7 @@
         <v>313</v>
       </c>
       <c r="D20" s="7">
-        <v>236780</v>
+        <v>230978</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1958,7 +1958,7 @@
         <v>334</v>
       </c>
       <c r="I20" s="7">
-        <v>209114</v>
+        <v>195021</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1973,7 +1973,7 @@
         <v>647</v>
       </c>
       <c r="N20" s="7">
-        <v>445894</v>
+        <v>425999</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1994,7 +1994,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2009,7 +2009,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2024,7 +2024,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2047,7 +2047,7 @@
         <v>85</v>
       </c>
       <c r="D22" s="7">
-        <v>88474</v>
+        <v>87535</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>127</v>
@@ -2062,7 +2062,7 @@
         <v>258</v>
       </c>
       <c r="I22" s="7">
-        <v>189748</v>
+        <v>176016</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>130</v>
@@ -2077,7 +2077,7 @@
         <v>343</v>
       </c>
       <c r="N22" s="7">
-        <v>278222</v>
+        <v>263550</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>133</v>
@@ -2098,7 +2098,7 @@
         <v>513</v>
       </c>
       <c r="D23" s="7">
-        <v>538203</v>
+        <v>535715</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>136</v>
@@ -2113,7 +2113,7 @@
         <v>702</v>
       </c>
       <c r="I23" s="7">
-        <v>614455</v>
+        <v>673249</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>139</v>
@@ -2128,7 +2128,7 @@
         <v>1215</v>
       </c>
       <c r="N23" s="7">
-        <v>1152658</v>
+        <v>1208964</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>142</v>
@@ -2149,7 +2149,7 @@
         <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>626677</v>
+        <v>623250</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2164,7 +2164,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2179,7 +2179,7 @@
         <v>1558</v>
       </c>
       <c r="N24" s="7">
-        <v>1430880</v>
+        <v>1472514</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2202,7 +2202,7 @@
         <v>194</v>
       </c>
       <c r="D25" s="7">
-        <v>168249</v>
+        <v>144085</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>146</v>
@@ -2217,7 +2217,7 @@
         <v>378</v>
       </c>
       <c r="I25" s="7">
-        <v>272069</v>
+        <v>227859</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>149</v>
@@ -2232,7 +2232,7 @@
         <v>572</v>
       </c>
       <c r="N25" s="7">
-        <v>440318</v>
+        <v>371943</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>152</v>
@@ -2253,7 +2253,7 @@
         <v>568</v>
       </c>
       <c r="D26" s="7">
-        <v>691179</v>
+        <v>784635</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>155</v>
@@ -2268,7 +2268,7 @@
         <v>683</v>
       </c>
       <c r="I26" s="7">
-        <v>593603</v>
+        <v>487533</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>158</v>
@@ -2283,7 +2283,7 @@
         <v>1251</v>
       </c>
       <c r="N26" s="7">
-        <v>1284782</v>
+        <v>1272169</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>161</v>
@@ -2304,7 +2304,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2319,7 +2319,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2334,7 +2334,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2357,7 +2357,7 @@
         <v>519</v>
       </c>
       <c r="D28" s="7">
-        <v>474359</v>
+        <v>442807</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>164</v>
@@ -2372,7 +2372,7 @@
         <v>1248</v>
       </c>
       <c r="I28" s="7">
-        <v>835803</v>
+        <v>752955</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>167</v>
@@ -2387,7 +2387,7 @@
         <v>1767</v>
       </c>
       <c r="N28" s="7">
-        <v>1310162</v>
+        <v>1195762</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>170</v>
@@ -2408,7 +2408,7 @@
         <v>2854</v>
       </c>
       <c r="D29" s="7">
-        <v>2907782</v>
+        <v>3013995</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>173</v>
@@ -2423,7 +2423,7 @@
         <v>4112</v>
       </c>
       <c r="I29" s="7">
-        <v>2967849</v>
+        <v>2905426</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>176</v>
@@ -2438,7 +2438,7 @@
         <v>6966</v>
       </c>
       <c r="N29" s="7">
-        <v>5875631</v>
+        <v>5919422</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>179</v>
@@ -2459,7 +2459,7 @@
         <v>3373</v>
       </c>
       <c r="D30" s="7">
-        <v>3382141</v>
+        <v>3456802</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2474,7 +2474,7 @@
         <v>5360</v>
       </c>
       <c r="I30" s="7">
-        <v>3803652</v>
+        <v>3658381</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2489,7 +2489,7 @@
         <v>8733</v>
       </c>
       <c r="N30" s="7">
-        <v>7185793</v>
+        <v>7115184</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
